--- a/modeling/results/feature_imp_text_emb.xlsx
+++ b/modeling/results/feature_imp_text_emb.xlsx
@@ -25,16 +25,31 @@
     <t>F90</t>
   </si>
   <si>
+    <t>F73</t>
+  </si>
+  <si>
+    <t>F97</t>
+  </si>
+  <si>
+    <t>F78</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F83</t>
+  </si>
+  <si>
+    <t>F74</t>
+  </si>
+  <si>
     <t>F72</t>
   </si>
   <si>
-    <t>F78</t>
-  </si>
-  <si>
-    <t>F97</t>
-  </si>
-  <si>
-    <t>F83</t>
+    <t>F12</t>
   </si>
   <si>
     <t>F71</t>
@@ -43,283 +58,268 @@
     <t>F14</t>
   </si>
   <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>F96</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F61</t>
+  </si>
+  <si>
+    <t>F75</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
     <t>F25</t>
   </si>
   <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F42</t>
-  </si>
-  <si>
-    <t>F73</t>
-  </si>
-  <si>
-    <t>F12</t>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F62</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F10</t>
   </si>
   <si>
     <t>F15</t>
   </si>
   <si>
+    <t>F94</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F77</t>
+  </si>
+  <si>
+    <t>F63</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
     <t>F0</t>
   </si>
   <si>
-    <t>F34</t>
-  </si>
-  <si>
-    <t>F62</t>
-  </si>
-  <si>
-    <t>F37</t>
-  </si>
-  <si>
-    <t>F35</t>
-  </si>
-  <si>
-    <t>F27</t>
-  </si>
-  <si>
-    <t>F75</t>
-  </si>
-  <si>
-    <t>F68</t>
-  </si>
-  <si>
-    <t>F80</t>
-  </si>
-  <si>
-    <t>F61</t>
-  </si>
-  <si>
-    <t>F46</t>
-  </si>
-  <si>
-    <t>F49</t>
-  </si>
-  <si>
-    <t>F94</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F17</t>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F69</t>
+  </si>
+  <si>
+    <t>F89</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F86</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F88</t>
+  </si>
+  <si>
+    <t>F99</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F56</t>
+  </si>
+  <si>
+    <t>F52</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F4</t>
   </si>
   <si>
     <t>F48</t>
   </si>
   <si>
-    <t>F31</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F65</t>
-  </si>
-  <si>
-    <t>F63</t>
-  </si>
-  <si>
-    <t>F40</t>
-  </si>
-  <si>
-    <t>F33</t>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F92</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>F98</t>
+  </si>
+  <si>
+    <t>F54</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F59</t>
   </si>
   <si>
     <t>F64</t>
   </si>
   <si>
-    <t>F5</t>
+    <t>F93</t>
+  </si>
+  <si>
+    <t>F32</t>
   </si>
   <si>
     <t>F76</t>
   </si>
   <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F29</t>
-  </si>
-  <si>
-    <t>F86</t>
+    <t>F13</t>
   </si>
   <si>
     <t>F91</t>
   </si>
   <si>
-    <t>F69</t>
-  </si>
-  <si>
-    <t>F24</t>
+    <t>F82</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F60</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F84</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>F58</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F66</t>
+  </si>
+  <si>
+    <t>F53</t>
+  </si>
+  <si>
+    <t>F38</t>
   </si>
   <si>
     <t>F67</t>
   </si>
   <si>
-    <t>F99</t>
-  </si>
-  <si>
-    <t>F20</t>
-  </si>
-  <si>
-    <t>F87</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F88</t>
-  </si>
-  <si>
-    <t>F53</t>
-  </si>
-  <si>
-    <t>F85</t>
-  </si>
-  <si>
-    <t>F96</t>
-  </si>
-  <si>
-    <t>F28</t>
-  </si>
-  <si>
-    <t>F59</t>
-  </si>
-  <si>
-    <t>F57</t>
-  </si>
-  <si>
-    <t>F77</t>
-  </si>
-  <si>
-    <t>F51</t>
+    <t>F19</t>
   </si>
   <si>
     <t>F6</t>
-  </si>
-  <si>
-    <t>F13</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F39</t>
-  </si>
-  <si>
-    <t>F95</t>
-  </si>
-  <si>
-    <t>F58</t>
-  </si>
-  <si>
-    <t>F92</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F93</t>
-  </si>
-  <si>
-    <t>F81</t>
-  </si>
-  <si>
-    <t>F18</t>
-  </si>
-  <si>
-    <t>F41</t>
-  </si>
-  <si>
-    <t>F56</t>
-  </si>
-  <si>
-    <t>F70</t>
-  </si>
-  <si>
-    <t>F98</t>
-  </si>
-  <si>
-    <t>F26</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F23</t>
-  </si>
-  <si>
-    <t>F38</t>
-  </si>
-  <si>
-    <t>F30</t>
-  </si>
-  <si>
-    <t>F32</t>
-  </si>
-  <si>
-    <t>F45</t>
-  </si>
-  <si>
-    <t>F66</t>
-  </si>
-  <si>
-    <t>F44</t>
-  </si>
-  <si>
-    <t>F55</t>
-  </si>
-  <si>
-    <t>F60</t>
-  </si>
-  <si>
-    <t>F89</t>
-  </si>
-  <si>
-    <t>F47</t>
-  </si>
-  <si>
-    <t>F50</t>
-  </si>
-  <si>
-    <t>F54</t>
-  </si>
-  <si>
-    <t>F74</t>
-  </si>
-  <si>
-    <t>F79</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F52</t>
-  </si>
-  <si>
-    <t>F21</t>
-  </si>
-  <si>
-    <t>F82</t>
-  </si>
-  <si>
-    <t>F43</t>
-  </si>
-  <si>
-    <t>F84</t>
-  </si>
-  <si>
-    <t>F22</t>
-  </si>
-  <si>
-    <t>F19</t>
-  </si>
-  <si>
-    <t>F16</t>
-  </si>
-  <si>
-    <t>F36</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.02904411350790321</v>
+        <v>0.03260476883348028</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.01857855269576161</v>
+        <v>0.02102880859371545</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.01675817146764667</v>
+        <v>0.01673130366025621</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.01560880534480856</v>
+        <v>0.01658301800354661</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.0147324699671899</v>
+        <v>0.01609776070766176</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.01468310630440842</v>
+        <v>0.01607696445903602</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.01415457819002338</v>
+        <v>0.0146154164125941</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.01404888996922137</v>
+        <v>0.01439072919696051</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.01397638157891724</v>
+        <v>0.01434174445985483</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.01391881682522185</v>
+        <v>0.01332665791206895</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.01385116119807851</v>
+        <v>0.01324803825998136</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.01327547575008639</v>
+        <v>0.0129143630540386</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.01311670945285096</v>
+        <v>0.01264890513557848</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.01295390398282626</v>
+        <v>0.01240507254560914</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.01259929235596384</v>
+        <v>0.01214507432028988</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.01249995833526367</v>
+        <v>0.01185074268848109</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.01231689237729475</v>
+        <v>0.01144325676840947</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.01231000388322479</v>
+        <v>0.01143976339355335</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.01228147487950175</v>
+        <v>0.01142687676192904</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.01225040368908734</v>
+        <v>0.01128016490739829</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.01212004327982132</v>
+        <v>0.01087823160054065</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.01188300807615795</v>
+        <v>0.01085681762059671</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.01183647658839689</v>
+        <v>0.01080150759781467</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.0116933015507432</v>
+        <v>0.01072898984012064</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.01150671881656984</v>
+        <v>0.01050133604624505</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.01138683971956207</v>
+        <v>0.01044158161419956</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.01131802567954966</v>
+        <v>0.01043828721273567</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.01111650921334501</v>
+        <v>0.01031333685153614</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.01083669448724226</v>
+        <v>0.01028676734299549</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.01076883634207136</v>
+        <v>0.01014103861152375</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.01054745566325914</v>
+        <v>0.01011838042186428</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.01038943102570556</v>
+        <v>0.0100992157792603</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.0103725513521667</v>
+        <v>0.01007490342087148</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.01024109941571767</v>
+        <v>0.009920004075908758</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.01007366243341976</v>
+        <v>0.009897240189704554</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -976,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.01000686496534466</v>
+        <v>0.009889994121456738</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.009878925055204889</v>
+        <v>0.00985484125255698</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +992,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.009688668127041193</v>
+        <v>0.009846137447323785</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.009565106428261423</v>
+        <v>0.009836020446385181</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.009404854875544244</v>
+        <v>0.009630468828521178</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.009341439409851148</v>
+        <v>0.009620278917518052</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.009338016370504014</v>
+        <v>0.009600078563583452</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.009282598913409542</v>
+        <v>0.009560684298393081</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.009144354579305269</v>
+        <v>0.009520659056296047</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.009058791296655499</v>
+        <v>0.009414676516489551</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.008995198777319519</v>
+        <v>0.009399475522666989</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.008992916331808409</v>
+        <v>0.009388980111129286</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.008976712618954781</v>
+        <v>0.009205178372588836</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.008868536134634973</v>
+        <v>0.009128673782532211</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.008816105198988228</v>
+        <v>0.009073272132971292</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.008754973745367194</v>
+        <v>0.009071180825052792</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.008683181117193744</v>
+        <v>0.009064231308891295</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.008669456838974547</v>
+        <v>0.008916905093074173</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.008665567298349308</v>
+        <v>0.008902309160570325</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.008636208400755494</v>
+        <v>0.008892373416634621</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.008602217331836789</v>
+        <v>0.008811325990484606</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.00859646823180121</v>
+        <v>0.008741462506348012</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.008590863907377238</v>
+        <v>0.008714448934184037</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.008506244208922962</v>
+        <v>0.00871005524932872</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.00847373552689768</v>
+        <v>0.008651181383025506</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.008451811062301003</v>
+        <v>0.008647202672935544</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.008415158216964438</v>
+        <v>0.008605342038207252</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.008413879697783001</v>
+        <v>0.008514585177140993</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.008400703092926958</v>
+        <v>0.008499589037781093</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.008397043033059624</v>
+        <v>0.008454319993988369</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.008391345019672852</v>
+        <v>0.008391524563052343</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.008375581550535716</v>
+        <v>0.008384692420791961</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.008367109986526913</v>
+        <v>0.008368942533536294</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.008363600544154646</v>
+        <v>0.0083466110901095</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.008337706781474883</v>
+        <v>0.008334517241688589</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.008285423906837827</v>
+        <v>0.00828594187067218</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.008284593738157217</v>
+        <v>0.00828037868597417</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.008281669897733133</v>
+        <v>0.008272158593254085</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.008279416200225488</v>
+        <v>0.008248105980869414</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.008247706253690458</v>
+        <v>0.00824634613085011</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.008205532026106965</v>
+        <v>0.008243107818939379</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.008166188508313372</v>
+        <v>0.008239583115887</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.00811368737462174</v>
+        <v>0.008198036653555937</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.008110925642267645</v>
+        <v>0.008107867093211048</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.008099063285544062</v>
+        <v>0.00805181689365061</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.008035581648543429</v>
+        <v>0.008046307806592689</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.007955480909950394</v>
+        <v>0.008041373108372465</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.007948060364304226</v>
+        <v>0.007868247592970433</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.007947133733427963</v>
+        <v>0.007847923328483204</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0.007924312337901869</v>
+        <v>0.007726398448081087</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1376,7 +1376,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.007911341065776022</v>
+        <v>0.007615994979083314</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1384,7 +1384,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0.007875068612306441</v>
+        <v>0.007590711068040359</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1392,7 +1392,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.007785824673645711</v>
+        <v>0.007580485867379329</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1400,7 +1400,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.007762311161249019</v>
+        <v>0.007551825527110236</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1408,7 +1408,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0.00763449481419809</v>
+        <v>0.007549940325025173</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1416,7 +1416,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.00747881100261167</v>
+        <v>0.007506027841495337</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1424,7 +1424,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.007469256463693296</v>
+        <v>0.007451429035561371</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1432,7 +1432,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.007395033622193118</v>
+        <v>0.007439014634454281</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1440,7 +1440,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.007360058312485119</v>
+        <v>0.007237419961175108</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1448,7 +1448,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.007294718638049202</v>
+        <v>0.007217471287012728</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1456,7 +1456,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.007124631201598626</v>
+        <v>0.007120968462958624</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1464,7 +1464,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0.006973950203397875</v>
+        <v>0.007099456225906673</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.006698969137080133</v>
+        <v>0.007097942227216941</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0.006527025560263125</v>
+        <v>0.00709765032924697</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>0.006321969629113963</v>
+        <v>0.007050780799370019</v>
       </c>
     </row>
   </sheetData>

--- a/modeling/results/feature_imp_text_emb.xlsx
+++ b/modeling/results/feature_imp_text_emb.xlsx
@@ -25,13 +25,28 @@
     <t>F90</t>
   </si>
   <si>
+    <t>F97</t>
+  </si>
+  <si>
+    <t>F78</t>
+  </si>
+  <si>
+    <t>F71</t>
+  </si>
+  <si>
+    <t>F74</t>
+  </si>
+  <si>
     <t>F73</t>
   </si>
   <si>
-    <t>F97</t>
-  </si>
-  <si>
-    <t>F78</t>
+    <t>F72</t>
+  </si>
+  <si>
+    <t>F83</t>
+  </si>
+  <si>
+    <t>F34</t>
   </si>
   <si>
     <t>F7</t>
@@ -40,286 +55,271 @@
     <t>F42</t>
   </si>
   <si>
-    <t>F83</t>
-  </si>
-  <si>
-    <t>F74</t>
-  </si>
-  <si>
-    <t>F72</t>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F96</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F61</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F86</t>
+  </si>
+  <si>
+    <t>F62</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F69</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F63</t>
+  </si>
+  <si>
+    <t>F57</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F71</t>
-  </si>
-  <si>
-    <t>F14</t>
-  </si>
-  <si>
-    <t>F34</t>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F52</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F33</t>
   </si>
   <si>
     <t>F80</t>
   </si>
   <si>
-    <t>F96</t>
-  </si>
-  <si>
-    <t>F49</t>
-  </si>
-  <si>
-    <t>F61</t>
-  </si>
-  <si>
     <t>F75</t>
   </si>
   <si>
-    <t>F17</t>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F91</t>
   </si>
   <si>
     <t>F25</t>
   </si>
   <si>
-    <t>F35</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F27</t>
-  </si>
-  <si>
-    <t>F62</t>
-  </si>
-  <si>
-    <t>F46</t>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>F98</t>
+  </si>
+  <si>
+    <t>F67</t>
+  </si>
+  <si>
+    <t>F66</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F89</t>
+  </si>
+  <si>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>F99</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>F88</t>
+  </si>
+  <si>
+    <t>F94</t>
+  </si>
+  <si>
+    <t>F4</t>
   </si>
   <si>
     <t>F29</t>
   </si>
   <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F15</t>
-  </si>
-  <si>
-    <t>F94</t>
-  </si>
-  <si>
-    <t>F37</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F33</t>
-  </si>
-  <si>
-    <t>F65</t>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F82</t>
+  </si>
+  <si>
+    <t>F58</t>
+  </si>
+  <si>
+    <t>F93</t>
+  </si>
+  <si>
+    <t>F54</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F53</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>F77</t>
+  </si>
+  <si>
+    <t>F84</t>
+  </si>
+  <si>
+    <t>F56</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F76</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>F60</t>
   </si>
   <si>
     <t>F36</t>
   </si>
   <si>
-    <t>F77</t>
-  </si>
-  <si>
-    <t>F63</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F57</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F81</t>
-  </si>
-  <si>
-    <t>F68</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F0</t>
-  </si>
-  <si>
-    <t>F45</t>
-  </si>
-  <si>
-    <t>F31</t>
-  </si>
-  <si>
-    <t>F40</t>
-  </si>
-  <si>
-    <t>F21</t>
-  </si>
-  <si>
-    <t>F69</t>
-  </si>
-  <si>
-    <t>F89</t>
-  </si>
-  <si>
-    <t>F28</t>
-  </si>
-  <si>
-    <t>F86</t>
-  </si>
-  <si>
-    <t>F70</t>
-  </si>
-  <si>
-    <t>F23</t>
-  </si>
-  <si>
-    <t>F26</t>
-  </si>
-  <si>
-    <t>F39</t>
-  </si>
-  <si>
-    <t>F88</t>
-  </si>
-  <si>
-    <t>F99</t>
-  </si>
-  <si>
-    <t>F24</t>
-  </si>
-  <si>
-    <t>F56</t>
-  </si>
-  <si>
-    <t>F52</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F41</t>
-  </si>
-  <si>
-    <t>F20</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F48</t>
-  </si>
-  <si>
-    <t>F16</t>
-  </si>
-  <si>
-    <t>F87</t>
-  </si>
-  <si>
-    <t>F18</t>
-  </si>
-  <si>
-    <t>F22</t>
-  </si>
-  <si>
     <t>F92</t>
-  </si>
-  <si>
-    <t>F47</t>
-  </si>
-  <si>
-    <t>F98</t>
-  </si>
-  <si>
-    <t>F54</t>
-  </si>
-  <si>
-    <t>F44</t>
-  </si>
-  <si>
-    <t>F59</t>
-  </si>
-  <si>
-    <t>F64</t>
-  </si>
-  <si>
-    <t>F93</t>
-  </si>
-  <si>
-    <t>F32</t>
-  </si>
-  <si>
-    <t>F76</t>
-  </si>
-  <si>
-    <t>F13</t>
-  </si>
-  <si>
-    <t>F91</t>
-  </si>
-  <si>
-    <t>F82</t>
-  </si>
-  <si>
-    <t>F51</t>
-  </si>
-  <si>
-    <t>F85</t>
-  </si>
-  <si>
-    <t>F30</t>
-  </si>
-  <si>
-    <t>F60</t>
-  </si>
-  <si>
-    <t>F43</t>
-  </si>
-  <si>
-    <t>F55</t>
-  </si>
-  <si>
-    <t>F84</t>
-  </si>
-  <si>
-    <t>F79</t>
-  </si>
-  <si>
-    <t>F95</t>
-  </si>
-  <si>
-    <t>F58</t>
-  </si>
-  <si>
-    <t>F50</t>
-  </si>
-  <si>
-    <t>F66</t>
-  </si>
-  <si>
-    <t>F53</t>
-  </si>
-  <si>
-    <t>F38</t>
-  </si>
-  <si>
-    <t>F67</t>
-  </si>
-  <si>
-    <t>F19</t>
-  </si>
-  <si>
-    <t>F6</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.03260476883348028</v>
+        <v>0.03614072269436001</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.02102880859371545</v>
+        <v>0.02049135455948473</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.01673130366025621</v>
+        <v>0.02022768041635318</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.01658301800354661</v>
+        <v>0.0194590229964537</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.01609776070766176</v>
+        <v>0.01739204561958177</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.01607696445903602</v>
+        <v>0.01716153407291425</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.0146154164125941</v>
+        <v>0.01622279795521429</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.01439072919696051</v>
+        <v>0.01588143261638031</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.01434174445985483</v>
+        <v>0.01499353997837842</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.01332665791206895</v>
+        <v>0.01482868117121902</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.01324803825998136</v>
+        <v>0.01360222349931491</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.0129143630540386</v>
+        <v>0.01317121881856418</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.01264890513557848</v>
+        <v>0.01189765643515458</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.01240507254560914</v>
+        <v>0.01177813536854679</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.01214507432028988</v>
+        <v>0.01141766741585396</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.01185074268848109</v>
+        <v>0.01137893151195605</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.01144325676840947</v>
+        <v>0.01131740178041946</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.01143976339355335</v>
+        <v>0.01124277373565208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.01142687676192904</v>
+        <v>0.01110917695583667</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.01128016490739829</v>
+        <v>0.01105961070197236</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.01087823160054065</v>
+        <v>0.01098895488520623</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.01085681762059671</v>
+        <v>0.01096137043525417</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.01080150759781467</v>
+        <v>0.01095875923065872</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.01072898984012064</v>
+        <v>0.010930369024969</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.01050133604624505</v>
+        <v>0.01079402117243375</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.01044158161419956</v>
+        <v>0.01075596181273368</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.01043828721273567</v>
+        <v>0.01035767097509697</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.01031333685153614</v>
+        <v>0.01032008980528119</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.01028676734299549</v>
+        <v>0.0102631007012826</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.01014103861152375</v>
+        <v>0.01026038052984811</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.01011838042186428</v>
+        <v>0.01006061818381735</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.0100992157792603</v>
+        <v>0.01004725930683747</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.01007490342087148</v>
+        <v>0.01001833732767906</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.009920004075908758</v>
+        <v>0.009989419952604361</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.009897240189704554</v>
+        <v>0.009968348346946555</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -976,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.009889994121456738</v>
+        <v>0.009910396238857023</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.00985484125255698</v>
+        <v>0.009869392010845492</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +992,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.009846137447323785</v>
+        <v>0.009849016400576265</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.009836020446385181</v>
+        <v>0.009775280257620859</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.009630468828521178</v>
+        <v>0.009697633259085202</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.009620278917518052</v>
+        <v>0.009658278005307224</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.009600078563583452</v>
+        <v>0.009655337794417093</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.009560684298393081</v>
+        <v>0.009524760060928743</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.009520659056296047</v>
+        <v>0.009506673572528712</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.009414676516489551</v>
+        <v>0.009475091134801645</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.009399475522666989</v>
+        <v>0.009467577824985756</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.009388980111129286</v>
+        <v>0.009396946558413735</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.009205178372588836</v>
+        <v>0.009323279808982374</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.009128673782532211</v>
+        <v>0.009296047496971414</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.009073272132971292</v>
+        <v>0.009228847194650542</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.009071180825052792</v>
+        <v>0.008967571476079085</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.009064231308891295</v>
+        <v>0.008914103803272554</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.008916905093074173</v>
+        <v>0.008736301180443861</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.008902309160570325</v>
+        <v>0.008638934697722747</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.008892373416634621</v>
+        <v>0.008635743627982773</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.008811325990484606</v>
+        <v>0.008602965988052966</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.008741462506348012</v>
+        <v>0.008596006336572719</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.008714448934184037</v>
+        <v>0.008539554367568588</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.00871005524932872</v>
+        <v>0.008532552743276229</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.008651181383025506</v>
+        <v>0.008436245962267906</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.008647202672935544</v>
+        <v>0.008405749254557931</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.008605342038207252</v>
+        <v>0.00835557432281666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.008514585177140993</v>
+        <v>0.008333320867684719</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.008499589037781093</v>
+        <v>0.008328583435558656</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.008454319993988369</v>
+        <v>0.008318368190981289</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.008391524563052343</v>
+        <v>0.008313357535516422</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.008384692420791961</v>
+        <v>0.00828792943511554</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.008368942533536294</v>
+        <v>0.008287720345952045</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.0083466110901095</v>
+        <v>0.008287156574880959</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.008334517241688589</v>
+        <v>0.008270207891306195</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.00828594187067218</v>
+        <v>0.008230573686349947</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.00828037868597417</v>
+        <v>0.008218332034805166</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.008272158593254085</v>
+        <v>0.008203400345400477</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.008248105980869414</v>
+        <v>0.008125157216048551</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.00824634613085011</v>
+        <v>0.008112520763053422</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.008243107818939379</v>
+        <v>0.008075069683781898</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.008239583115887</v>
+        <v>0.007979426507010013</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.008198036653555937</v>
+        <v>0.007957945381823185</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.008107867093211048</v>
+        <v>0.007904192729498952</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.00805181689365061</v>
+        <v>0.0078921075092525</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.008046307806592689</v>
+        <v>0.007825207999480839</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.008041373108372465</v>
+        <v>0.007819921778652936</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.007868247592970433</v>
+        <v>0.007813517859778395</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.007847923328483204</v>
+        <v>0.007668651482683666</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0.007726398448081087</v>
+        <v>0.007591538786100763</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1376,7 +1376,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.007615994979083314</v>
+        <v>0.007583490128758691</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1384,7 +1384,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0.007590711068040359</v>
+        <v>0.007538140035568451</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1392,7 +1392,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.007580485867379329</v>
+        <v>0.007333469729379622</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1400,7 +1400,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.007551825527110236</v>
+        <v>0.00731941824009987</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1408,7 +1408,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0.007549940325025173</v>
+        <v>0.007316108808024544</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1416,7 +1416,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.007506027841495337</v>
+        <v>0.007132837772391936</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1424,7 +1424,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.007451429035561371</v>
+        <v>0.007075918831623335</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1432,7 +1432,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.007439014634454281</v>
+        <v>0.006737749280004744</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1440,7 +1440,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.007237419961175108</v>
+        <v>0.00651255877992229</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1448,7 +1448,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.007217471287012728</v>
+        <v>0.006366169487299128</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1456,7 +1456,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.007120968462958624</v>
+        <v>0.006222614141914842</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1464,7 +1464,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0.007099456225906673</v>
+        <v>0.006030845381140783</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.007097942227216941</v>
+        <v>0.005806314710516484</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0.00709765032924697</v>
+        <v>0.005698783140234157</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>0.007050780799370019</v>
+        <v>0.005037242118558723</v>
       </c>
     </row>
   </sheetData>
